--- a/notebooks/temp.xlsx
+++ b/notebooks/temp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,24 +465,24 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>593</v>
+        <v>283</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-1_ppr_aquaterra_aquaterra ppr_golde</t>
+          <t>0_forged_fixed_british_checkered</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['ppr', 'aquaterra', 'aquaterra ppr', 'golde', 'bars', 'tech', 'pcs', 'tray', 'petromin', 'no']</t>
+          <t>['forged', 'fixed', 'british', 'checkered', 'white', 'type', 'قاطع', 'set', 'long', 'allen']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['cable tray horizontal elbow mmwx hx thk curved type tyep tr ne', 'cable tray horizontal elbow mmwx hx thk curved type tyep tr ne', 'cable tray horizontal unequal tee mmwx hx thk curved type']</t>
+          <t>['british chef utility knife', 'nut bolt washer', 'bolt nut washer']</t>
         </is>
       </c>
     </row>
@@ -491,19 +491,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0____</t>
+          <t>1_unknown_مسحوب_نجران_قفي</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['', '', '', '', '', '', '', '', '', '']</t>
+          <t>['unknown', 'مسحوب', 'نجران', 'قفي', 'فيز', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -517,24 +517,24 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1_تسليح سابك_سابك حديد_سابك_حديد تسليح</t>
+          <t>2_معنون_fresh_نائم_recessed</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['تسليح سابك', 'سابك حديد', 'سابك', 'حديد تسليح', 'تسليح', 'حديد', 'مجدول سابك', 'حديد سابك', 'مجدول', 'مسحوب سابك']</t>
+          <t>['معنون', 'fresh', 'نائم', 'recessed', 'approved', 'mounted', 'حري', 'air', 'بارد', 'facing']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['حديد تسليح سابك', 'حديد تسليح سابك', 'حديد تسليح سابك']</t>
+          <t>['wall light ip led lamp', 'square floor drain gasket fd', 'square floor drain gasket fd']</t>
         </is>
       </c>
     </row>
@@ -543,24 +543,24 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2_اتفاق_حديد تسليح_تسليح_حديد</t>
+          <t>3_different_مختلف_عجم_bare</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['اتفاق', 'حديد تسليح', 'تسليح', 'حديد', 'حديد اتفاق', 'مجدول اتفاق', 'حديد مجدول', 'مجدول', '', '']</t>
+          <t>['different', 'مختلف', 'عجم', 'bare', 'فارغ', 'نجران', 'shadeed', 'عامود', 'dim', 'استان']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['حديد تسليح اتفاق', 'حديد تسليح اتفاق', 'حديد تسليح اتفاق']</t>
+          <t>['aluminium profile bars pcs', 'aluminium profile bars pcs', 'aluminium profile bars pcs']</t>
         </is>
       </c>
     </row>
@@ -569,24 +569,24 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3_xt_ac_mmx_iec</t>
+          <t>4_slitted_heb_ogn_nbtc</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['xt', 'ac', 'mmx', 'iec', 'dc', 'xt xt', 'kit', 'inn xt', 'inn', 'moe']</t>
+          <t>['slitted', 'heb', 'ogn', 'nbtc', 'مدهون', 'ofa', 'set', 'ipe', 'reader', 'rst']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['xt tma', 'xt tma', 'xt tma']</t>
+          <t>['ipe', 'ipe', 'ipe']</t>
         </is>
       </c>
     </row>
@@ -595,24 +595,24 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4_each_screw_angle_anchor</t>
+          <t>5_معزوله_qha_nw_غامق</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['each', 'screw', 'angle', 'anchor', 'wall', 'self', 'light', 'ip', 'mada', 'bolt']</t>
+          <t>['معزوله', 'qha', 'nw', 'غامق', 'hand', 'hung', 'high', 'white', 'dia', 'precast']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['sinck screw each', 'csk screw each', 'sinko screw each']</t>
+          <t>['توريد مواد تقني الواح الخرسانيه معزوله ثلاثي ابعاد panel نموذج فلل شرف', 'توريد مواد تقني الواح الخرسانيه معزوله ثلاثي الابعاد panel نموذج فلل شرف', 'فلل شرف توريد اكسسوارات تقني الواح الخرسانيه معزوله ثلاثي ابعاد panel نموذج']</t>
         </is>
       </c>
     </row>
@@ -621,24 +621,24 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5_سرايا_اسود_قاطع_كيبل</t>
+          <t>6_نمساوي_change_جاف_eye</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['سرايا', 'اسود', 'قاطع', 'كيبل', 'اسود بني', 'ربل', 'بني', 'sl', 'امبير', 'كيبل رياض']</t>
+          <t>['نمساوي', 'change', 'جاف', 'eye', 'محبس', 'water', 'ext', 'work', 'hole', 'مائي']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['درف شنكل سرايا اسود', 'بركلوز سرايا دبل اسود', 'قاطع سرايا اسود']</t>
+          <t>['ماسور حراري تحويل', 'ماسور حراري تحويل', 'ماسور حراري تحويل']</t>
         </is>
       </c>
     </row>
@@ -647,24 +647,24 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6_ماسوره_حديد_مربع_فارغ</t>
+          <t>7_متنوع_female_tinted_dn</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['ماسوره', 'حديد', 'مربع', 'فارغ', 'مستطيل', 'ضغط', 'حديد اتفاق', 'اتفاق', '', '']</t>
+          <t>['متنوع', 'female', 'tinted', 'dn', 'dag', 'normal', 'short', 'room', 'ko', 'stop']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['ماسوره حديد', 'ماسوره حديد', 'ماسوره حديد']</t>
+          <t>['bend pvc aplac', 'bend pvc aplac', 'bend pvc aplac']</t>
         </is>
       </c>
     </row>
@@ -673,24 +673,24 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7_fp_mcc_mdp_dn</t>
+          <t>8_خاص_مصمت_outdoor_small</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['fp', 'mcc', 'mdp', 'dn', 'dp', 'gi', 'xt', 'ral', 'hub fd', 'lra']</t>
+          <t>['خاص', 'مصمت', 'outdoor', 'small', 'indoor', 'wet', 'safe', 'deformed', 'عاري', 'اتفاق']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['fp iu or version hr', 'fp iu or version hr', 'fp iu hr']</t>
+          <t>['كيبل رياض عادي', 'كيبل رياض عادي', 'كيبل رياض عادي']</t>
         </is>
       </c>
     </row>
@@ -699,24 +699,24 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8_مقاوم_upn_غراء_stud</t>
+          <t>9_open_plain_hung_checkered</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['مقاوم', 'upn', 'غراء', 'stud', 'breaker', 'slotted', 'sg', 'rebar', 'sabic', 'acrylic']</t>
+          <t>['open', 'plain', 'hung', 'checkered', 'india', 'slotted', 'ديد', 'long', 'nut', 'flat']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['مقاوم', 'مقاوم', 'مقاوم']</t>
+          <t>['hdg osf tray length', 'hdg osf tray length', 'hdg osf tray length']</t>
         </is>
       </c>
     </row>
@@ -725,24 +725,24 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9_concrete_floor_ارضي_tank</t>
+          <t>10_wireless_خارجي_fixed_moe</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['concrete', 'floor', 'ارضي', 'tank', 'fd', 'capacity', 'floor drain', 'gasket fd', 'flat', 'gasket']</t>
+          <t>['wireless', 'خارجي', 'fixed', 'moe', 'heb', 'af', 'inn', 'contact', 'uni', 'managed']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['funnel floor drain gasket fd', 'square floor drain gasket fd', 'square floor drain gasket fd']</t>
+          <t>['af hz dc contactor', 'af hz dc contactor', 'af hz dc contactor']</t>
         </is>
       </c>
     </row>
@@ -751,24 +751,24 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10_male_female_dzr_ppr</t>
+          <t>11_اتفاق_مجدول_حديد_تسليح</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['male', 'female', 'dzr', 'ppr', 'ppr male', 'mmx', 'reducer', 'aquaterra', 'ppr female', 'tee ppr']</t>
+          <t>['اتفاق', 'مجدول', 'حديد', 'تسليح', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['aquaterra ppr female adaptor union dzr', 'aquaterra ppr male adaptor dzr', 'aquaterra ppr male adaptor dzr']</t>
+          <t>['حديد تسليح اتفاق', 'حديد تسليح اتفاق', 'حديد تسليح اتفاق']</t>
         </is>
       </c>
     </row>
@@ -777,24 +777,24 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11_حديد سابك_حديد ويل_تسليح حديد_ويل</t>
+          <t>12_md_مجدول_حديد_سابك</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['حديد سابك', 'حديد ويل', 'تسليح حديد', 'ويل', 'سابك حديد', 'سابك', 'حديد', 'rail', 'ياباني', 'سد حديد']</t>
+          <t>['md', 'مجدول', 'حديد', 'سابك', 'تسليح', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['حديد سابك', 'حديد سابك', 'حديد سابك']</t>
+          <t>['حديد تسليح سابك', 'حديد تسليح سابك', 'حديد تسليح سابك']</t>
         </is>
       </c>
     </row>
@@ -803,24 +803,24 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12_bar sabic_sabic_black deformed_black</t>
+          <t>13_uninterruptible_naked_concealed_neda</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['bar sabic', 'sabic', 'black deformed', 'black', 'straight', 'deformed straight', 'straight bar', 'deformed', 'bar', '']</t>
+          <t>['uninterruptible', 'naked', 'concealed', 'neda', 'smart', 'online', 'female', 'male', 'conceal', 'inv']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['black deformed straight bar sabic', 'black deformed straight bar sabic', 'black deformed straight bar sabic']</t>
+          <t>['elbow ppr tah', 'elbow ppr tah', 'elbow ppr tah']</t>
         </is>
       </c>
     </row>
@@ -829,24 +829,24 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13_وطني_حديد تسليح_تسليح_حديد</t>
+          <t>14_black_قاطع_داخلي_دفن</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['وطني', 'حديد تسليح', 'تسليح', 'حديد', 'تسليح مجدول', 'مجدول', '', '', '', '']</t>
+          <t>['black', 'قاطع', 'داخلي', 'دفن', 'holland', 'اسود', 'مبروم', 'عريض', 'مشرح', 'gray']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['حديد تسليح وطني', 'حديد تسليح وطني', 'حديد تسليح وطني']</t>
+          <t>['صاج اسود', 'صاج اسود', 'صاج اسود']</t>
         </is>
       </c>
     </row>
@@ -855,24 +855,24 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>14_xt_xc_gi xc_fp ef</t>
+          <t>15_unknown_ناما_مفتوح_امريكي</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['xt', 'xc', 'gi xc', 'fp ef', 'ef', 'xt fp', 'fp', 'gi', '', '']</t>
+          <t>['unknown', 'ناما', 'مفتوح', 'امريكي', 'nya', 'هندي', 'نيبرو', 'black', 'ثابت', 'صغير']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['xt tmd', 'xt tmd', 'xt tmd']</t>
+          <t>['سلك سويدي اسود', 'سلك سويدي', 'سلك سويدي']</t>
         </is>
       </c>
     </row>
@@ -881,24 +881,24 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15_fan_عازل_rack_طوارئ</t>
+          <t>16_nut_stud_rect_doors</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['fan', 'عازل', 'rack', 'طوارئ', 'top', 'small', 'ups', 'حمامات', 'resol', 'clamp for']</t>
+          <t>['nut', 'stud', 'rect', 'doors', 'angle', 'ube', 'caine', 'tube', 'square', 'pipe']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['dome small roof drain mesh gasket fd gx', 'dome small roof drain with mesh gasket fd gx', 'rack cabint with fan and pdu']</t>
+          <t>['pipe', 'pipe', 'pipe']</t>
         </is>
       </c>
     </row>
@@ -907,24 +907,24 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>16_ekip_dip_ekip dip_touch</t>
+          <t>17_مسحوب_steel_بان_ساندوتش</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['ekip', 'dip', 'ekip dip', 'touch', 'starter', 'motor', 'ekip ls', 'lsig', 'class', 'ms']</t>
+          <t>['مسحوب', 'steel', 'بان', 'ساندوتش', 'سيخ', 'حديد', 'صاج', 'rebar', 'سابك', '']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['ekip dip lsi wmp', 'ekip dip lsi wmp', 'ekip dip lsi wmp']</t>
+          <t>['حديد سابك', 'حديد سابك', 'حديد سابك']</t>
         </is>
       </c>
     </row>
@@ -933,24 +933,24 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>17_plate_panel_checkered_hr</t>
+          <t>18_حديد_ماسور__</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['plate', 'panel', 'checkered', 'hr', 'supply and', 'with frame', 'light', 'with holes', 'fr', 'holes']</t>
+          <t>['حديد', 'ماسور', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['hr plate', 'hr plate', 'hr plate']</t>
+          <t>['ماسور حديد', 'ماسور حديد', 'ماسور حديد']</t>
         </is>
       </c>
     </row>
@@ -959,24 +959,24 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>18_high_coupler_wall_ups</t>
+          <t>19_tmd_xt_tmg_</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['high', 'coupler', 'wall', 'ups', 'rt', 'bend', 'swa pvc', 'swa', 'xlpe swa', 'pvc']</t>
+          <t>['tmd', 'xt', 'tmg', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['high wall creation pro qha hsn', 'high wall creation pro qha hsn', 'high wall creation pro qha hsn']</t>
+          <t>['xt tmd', 'xt tmd', 'xt tmd']</t>
         </is>
       </c>
     </row>
@@ -985,24 +985,24 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>19_عادي_elbow_نامات ربر_نامات</t>
+          <t>20_وطني_مجدول_حديد_تسليح</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['عادي', 'elbow', 'نامات ربر', 'نامات', 'بالستيك', 'بالستيك نامات', 'ربر', 'ppr elbow', 'elbow ppr', 'رياض']</t>
+          <t>['وطني', 'مجدول', 'حديد', 'تسليح', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['لب عادي بالستيك نامات ربر', 'لب عادي بالستيك نامات ربر', 'لب عادي بالستيك نامات ربر']</t>
+          <t>['حديد تسليح وطني', 'حديد تسليح وطني', 'حديد تسليح وطني']</t>
         </is>
       </c>
     </row>
@@ -1011,24 +1011,24 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C23" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>20_صاج اسود_اسود صاج_صاج_اسود</t>
+          <t>21_deformed_black_ثابت_قاطع</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['صاج اسود', 'اسود صاج', 'صاج', 'اسود', '', '', '', '', '', '']</t>
+          <t>['deformed', 'black', 'ثابت', 'قاطع', 'ادب', 'straight', 'اسود', 'bar', 'سرايا', 'سكه']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['صاج اسود', 'صاج اسود', 'صاج اسود']</t>
+          <t>['صاج حديد اسود', 'صاج حديد اسود', 'صاج حديد اسود']</t>
         </is>
       </c>
     </row>
@@ -1037,24 +1037,24 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>21_coil_cr_hr_coils</t>
+          <t>22_black_round_blue_eft</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['coil', 'cr', 'hr', 'coils', 'rod', 'type', 'gi', 'to cable', 'mould', 'sabic']</t>
+          <t>['black', 'round', 'blue', 'eft', 'yellow', 'bay', 'red', 'grey', 'belt', 'sheet']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['chq coil', 'chq coil', 'chq coil']</t>
+          <t>['جلب منار احمر', 'كوع فاتح منار احمر', 'كوع فاتح احمر منار']</t>
         </is>
       </c>
     </row>
@@ -1063,24 +1063,24 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>22_size_mx_bearing_non</t>
+          <t>23_fabricated_deformed_اتفاق_ديد</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['size', 'mx', 'bearing', 'non', 'ball', 'hub', 'ring', 'un', 'lock', 'joint']</t>
+          <t>['fabricated', 'deformed', 'اتفاق', 'ديد', 'راجح', 'cut', 'watani', 'سعودي', 'steel', 'saudi']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['brake chamber mx configuration assy lh size none color style mitsubi', 'brake adjuster assembly mx configuration front size none color', 'gear spring configuration size nonecolor mx style mitsubish']</t>
+          <t>['حديد تسليح سعودي', 'حديد تسليح سعودي', 'حديد تسليح سعودي']</t>
         </is>
       </c>
     </row>
@@ -1089,24 +1089,24 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>23_steel_bar_dia_saudi</t>
+          <t>24_seamless_low_needed_stength</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['steel', 'bar', 'dia', 'saudi', 'astm grade', 'grade', 'bar watani', 'astm', 'watani', 'bar sabic']</t>
+          <t>['seamless', 'low', 'needed', 'stength', 'diss', 'plain', 'beveled', 'end', 'slab', 'dia']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['reinforcing steel bar ittfaq', 'reinforcing steel bar ittfaq', 'reinforcing steel bar ittfaq']</t>
+          <t>['bpe welded pipe plain end sch', 'bpe welded pipe plain end sch', 'bpe welded pipe plain end sch']</t>
         </is>
       </c>
     </row>
@@ -1115,24 +1115,24 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>24_pipe_tube_sq_</t>
+          <t>25_وطني_حدب_ثقيل_يمام</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['pipe', 'tube', 'sq', '', '', '', '', '', '', '']</t>
+          <t>['وطني', 'حدب', 'ثقيل', 'يمام', 'اطوال', 'قمع', 'حديد', 'حاجز', 'توريج', 'عازل']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['pipe', 'pipe', 'pipe']</t>
+          <t>['سيراميك', 'سيراميك وطني', 'سيراميك وطني']</t>
         </is>
       </c>
     </row>
@@ -1141,24 +1141,24 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>25_sheet_gr_galvanized_sheet gi</t>
+          <t>26_اسود_حديد_صاج_ميزر</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['sheet', 'gr', 'galvanized', 'sheet gi', 'thickness', 'gi', 'pcs', 'metal', 'duct', 'mesh']</t>
+          <t>['اسود', 'حديد', 'صاج', 'ميزر', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['corrugated sheet', 'corrugated sheet', 'sheet']</t>
+          <t>['صاج حديد اسود', 'صاج حديد اسود', 'صاج حديد اسود']</t>
         </is>
       </c>
     </row>
@@ -1167,24 +1167,24 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>26_حديد اسود_صاج حديد_اسود صاج_صاج</t>
+          <t>27_clear_jr_ساعه_steel</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['حديد اسود', 'صاج حديد', 'اسود صاج', 'صاج', 'اسود', 'حديد', '', '', '', '']</t>
+          <t>['clear', 'jr', 'ساعه', 'steel', 'std', 'sheet', 'plate', 'trio', 'بار', 'hanger']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['صاج حديد اسود', 'صاج حديد اسود', 'صاج حديد اسود']</t>
+          <t>['hr sheet', 'hr sheet', 'hr sheet']</t>
         </is>
       </c>
     </row>
@@ -1193,24 +1193,24 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>27_سلك_نحاس_لفه سلك_لفه</t>
+          <t>28_female_male_end_dzr</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['سلك', 'نحاس', 'لفه سلك', 'لفه', 'مصمت', 'شمع', 'nya', 'شواب', 'ترانس', 'فضي']</t>
+          <t>['female', 'male', 'end', 'dzr', 'equal', 'ball', 'union', 'aquaterra', 'tee', 'elbow']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['سلك نحاس', 'لفه سلك نحاس مصمت مجدوا', 'لفه سلك نحاس مصمت مجدوا']</t>
+          <t>['aquaterra ppr female adaptor dzr', 'aquaterra ppr male adaptor dzr', 'aquaterra ppr male adaptor dzr']</t>
         </is>
       </c>
     </row>
@@ -1219,24 +1219,24 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>28_steel_rebar steel_iron_ittefaq</t>
+          <t>29_none_non_dead_color</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['steel', 'rebar steel', 'iron', 'ittefaq', 'bayferrox', 'ittifaq', 'gr', 'bayferrox black', 'bayferrox red', 'from']</t>
+          <t>['none', 'non', 'dead', 'color', 'istan', 'startin', 'siy', 'assy', 'oil', 'joint']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['ajeej steel shadeed', 'ajeej steel shadeed', 'steel lader steps']</t>
+          <t>['brake drum configuration rear size color mfm style fuso rel', 'brake drum configuration rear size color mfm style fuso rel', 'ball joint mx configuration size color mfm style fuso']</t>
         </is>
       </c>
     </row>
@@ -1245,24 +1245,24 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>29_chrome_kludi_kludi rak_rak</t>
+          <t>30_unequal_ne_new_single</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['chrome', 'kludi', 'kludi rak', 'rak', 'saab', 'elie saab', 'elie', 'grey', 'matt', 'cast']</t>
+          <t>['unequal', 'ne', 'new', 'single', 'type', 'slotted', 'way', 'earth', 'disconnecting', 'twin']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['elie saab vanity finishing top matt grey', 'elie saab vanity matt grey', 'elie saab vanity matt grey']</t>
+          <t>['cable tray horizontal unequal tee mmw hx thk curved type', 'cable tray horizontal unequal tee mmw hx thk curved type', 'cable tray horizontal unequal tee mmw hx thk curved type']</t>
         </is>
       </c>
     </row>
@@ -1271,24 +1271,24 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C33" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>30_ثلاثي_الخرسانيه_الواح_نظامي</t>
+          <t>31_deformed_black_straight_bar</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['ثلاثي', 'الخرسانيه', 'الواح', 'نظامي', 'توريد', 'توريد مواد', 'مواد', 'حديد سابك', 'panel', 'سد']</t>
+          <t>['deformed', 'black', 'straight', 'bar', 'سابك', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['فلل مضياف توريد مواد تقني الواح الخرسانيه معزوله ثلاثي ابعاد panel نموذج شرف', 'توريد مواد تقني الواح الخرسانيه معزوله ثلاثي ابعاد panel نموذج فلل شرف', 'توريد مواد تقني الواح الخرسانيه معزوله ثلاثي ابعاد panel نموذج فلل شرف']</t>
+          <t>['black deformed straight bar سابك', 'black deformed straight bar سابك', 'black deformed straight bar سابك']</t>
         </is>
       </c>
     </row>
@@ -1297,24 +1297,24 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C34" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>31_حراري_بارد_تحويل_مكيف</t>
+          <t>32_نبل_راجع_ويل_حديد</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['حراري', 'بارد', 'تحويل', 'مكيف', 'وحد', 'two', 'قسام', 'اي', 'foam', 'duct']</t>
+          <t>['نبل', 'راجع', 'ويل', 'حديد', 'صاج', 'coil', 'جريل', 'املس', '', '']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['ماسوره حراري تحويل', 'ماسوره حراري تحويل', 'ماسوره حراري تحويل']</t>
+          <t>['حديد ويل', 'حديد ويل', 'حديد ويل']</t>
         </is>
       </c>
     </row>
@@ -1323,24 +1323,24 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>32_سعودي_تسليح سعودي_حديد مجدول_مجدول اتفاق</t>
+          <t>33_deformed_straight_bar_coil</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['سعودي', 'تسليح سعودي', 'حديد مجدول', 'مجدول اتفاق', 'سعودي سابك', 'مجدول', 'يخ', 'مجدول سابك', 'حديد تسليح', 'تسليح']</t>
+          <t>['deformed', 'straight', 'bar', 'coil', 'cr', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['حديد تسليح سعودي', 'حديد تسليح سعودي', 'حديد تسليح سعودي']</t>
+          <t>['deformed straight bar cr', 'deformed straight bar cr', 'deformed straight bar cr']</t>
         </is>
       </c>
     </row>
@@ -1349,24 +1349,24 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>33_سلك_اصفر_اسود سلك_احمر</t>
+          <t>34_clear_tma_inn_returned</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['سلك', 'اصفر', 'اسود سلك', 'احمر', 'mdf مقنو', 'داخلي', 'mdf', 'اسود', 'حلق', 'مقنو']</t>
+          <t>['clear', 'tma', 'inn', 'returned', 'stand', 'temp', 'xt', 'rhe', '', '']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['سلك سويدي ازرق', 'سلك سويدي', 'سلك سويدي ازرق']</t>
+          <t>['xt tma', 'xt tma', 'xt tma']</t>
         </is>
       </c>
     </row>
@@ -1375,24 +1375,24 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>34_model_rubber_split_hanger</t>
+          <t>35_معزول_outdoor_indoor_black</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['model', 'rubber', 'split', 'hanger', 'clamp', 'adjustable', 'strap', 'pipe', 'side', 'gully']</t>
+          <t>['معزول', 'outdoor', 'indoor', 'black', 'مسلح', 'احاد', 'yelow', 'contained', 'earth', 'secondary']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['weicco rubber lined split clamp model wsc', 'weicco rubber lined split clamp model wsc', 'weicco rubber lined split clamp model wsc']</t>
+          <t>['riyadh cable cu xlpe pvc kv black', 'riyadh cable cu xlpe pvc kv black', 'riyadh cable cu xlpe pvc kv black']</t>
         </is>
       </c>
     </row>
@@ -1401,24 +1401,24 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C38" t="n">
         <v>29</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>35_ittifaq_black deformed_black_deformed straight</t>
+          <t>36_breaker_box_circuit_battery</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['ittifaq', 'black deformed', 'black', 'deformed straight', 'straight bar', 'straight', 'deformed', 'bar', 'ittefaq', 'black black']</t>
+          <t>['breaker', 'box', 'circuit', 'battery', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['black deformed straight bar ittifaq', 'black deformed straight bar ittifaq', 'black deformed straight bar ittifaq']</t>
+          <t>['circuit breaker', 'circuit breaker', 'circuit breaker']</t>
         </is>
       </c>
     </row>
@@ -1427,24 +1427,24 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>36_xt ekip_ls_ls xt_dip</t>
+          <t>37_ياباني_مفصل_نقا_watani</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['xt ekip', 'ls', 'ls xt', 'dip', 'ekip dip', 'ekip', 'xt', 'ct', 'dip lsig', 'ext']</t>
+          <t>['ياباني', 'مفصل', 'نقا', 'watani', 'نظامي', 'طلب', 'سد', 'مجدول', 'حديد', 'سابك']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>['xt ekip dip ls', 'xt ekip dip ls', 'xt ekip dip ls']</t>
+          <t>['حديد سابك نظامي', 'حديد سابك نظامي', 'حديد سابك نظامي']</t>
         </is>
       </c>
     </row>
@@ -1453,24 +1453,24 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>37_thick_tray thick_hdg osf_osf tray</t>
+          <t>38_deformed_black_ittefaq_ittifaq</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['thick', 'tray thick', 'hdg osf', 'osf tray', 'osf', 'tray', 'deg', 'hdg', 'open', 'equal tee']</t>
+          <t>['deformed', 'black', 'ittefaq', 'ittifaq', 'straight', 'bar', '', '', '', '']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>['riser deg hdg osf tray thick', 'riser deg hdg osf tray thick', 'riser deg hdg osf tray thick']</t>
+          <t>['black deformed straight bar ittifaq', 'black deformed straight bar ittifaq', 'black deformed straight bar ittifaq']</t>
         </is>
       </c>
     </row>
@@ -1479,24 +1479,24 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C41" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>38_bar cr_cr_cr deformed_straight</t>
+          <t>39_ext_ekip_dip_li</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['bar cr', 'cr', 'cr deformed', 'straight', 'straight bar', 'deformed straight', 'deformed', 'bar', 'linear', '']</t>
+          <t>['ext', 'ekip', 'dip', 'li', 'iec', 'xt', 'ul', 'lsi', 'hr', 'ct']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>['deformed straight bar cr', 'deformed straight bar cr', 'deformed straight bar cr']</t>
+          <t>['xt ekip dip ls', 'xt ekip dip ls', 'xt ekip dip ls']</t>
         </is>
       </c>
     </row>
@@ -1505,24 +1505,24 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>39_تحويل_to_trans_port</t>
+          <t>40_cut_steel_bend_rebar</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['تحويل', 'to', 'trans', 'port', 'freight', 'ات', 'نقاص', 'balast trans', 'balast', 'تحويل كوع']</t>
+          <t>['cut', 'steel', 'bend', 'rebar', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>['جلب تحويل', 'جلب تحويل', 'كوع تحويل']</t>
+          <t>['cut bend rebar', 'cut bend rebar', 'cut bend rebar']</t>
         </is>
       </c>
     </row>
@@ -1531,24 +1531,24 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>40_حديد اسود_صاج حديد_اسود صاج_صاج</t>
+          <t>41_adjustable_split_lined_wacker</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['حديد اسود', 'صاج حديد', 'اسود صاج', 'صاج', 'اسود', 'حديد', '', '', '', '']</t>
+          <t>['adjustable', 'split', 'lined', 'wacker', 'اكر', 'اسود', 'weic', 'الماني', 'model', 'pipe']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>['صاج حديد اسود', 'صاج حديد اسود', 'صاج حديد اسود']</t>
+          <t>['weic rubber lined split clamp model wsc', 'weic rubber lined split clamp model wsc', 'weic rubber lined split clamp model wsc']</t>
         </is>
       </c>
     </row>
@@ -1557,24 +1557,24 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>41_long_degree_طول_bolt</t>
+          <t>42_سعودي_مجدول_حديد_سابك</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['long', 'degree', 'طول', 'bolt', 'elbow', 'rails', 'hdg', 'cutting', 'with holes', 'holes']</t>
+          <t>['سعودي', 'مجدول', 'حديد', 'سابك', 'تسليح', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['gi bolt long', 'long elbow degree', 'long elbow degree']</t>
+          <t>['حديد تسليح مجدول سعودي سابك', 'حديد تسليح مجدول سعودي سابك', 'حديد تسليح مجدول سعودي سابك']</t>
         </is>
       </c>
     </row>
@@ -1583,19 +1583,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C45" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>42_سابك مسحوب_مسحوب_تسليح سابك_سابك</t>
+          <t>43_مسحوب_بارد_مجدول_حديد</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['سابك مسحوب', 'مسحوب', 'تسليح سابك', 'سابك', 'حديد تسليح', 'تسليح', 'weld', 'metal', 'علب', 'of']</t>
+          <t>['مسحوب', 'بارد', 'مجدول', 'حديد', 'سابك', 'تسليح', '', '', '', '']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -1609,24 +1609,24 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C46" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>43_wire_mesh_roll_ksa</t>
+          <t>44_touch_measuring_ekip_dip</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['wire', 'mesh', 'roll', 'ksa', 'wire black', 'cable', 'point', 'جهد', 'wire red', 'power cable']</t>
+          <t>['touch', 'measuring', 'ekip', 'dip', 'sw', 'lsi', 'wmp', '', '', '']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>['wire mesh', 'wire mesh', 'wire mesh']</t>
+          <t>['ekip dip lsi wmp', 'ekip dip lsi wmp', 'ekip dip lsi wmp']</t>
         </is>
       </c>
     </row>
@@ -1635,24 +1635,24 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>44____</t>
+          <t>45_home_شواب_اغني_ويل</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['', '', '', '', '', '', '', '', '', '']</t>
+          <t>['home', 'شواب', 'اغني', 'ويل', 'دامب', 'villa', 'shurfa', 'وليم', 'صاج', 'erection']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>['S201-C10', 'S203-C63', 'S201-C20']</t>
+          <t>['ويل تسليح املس سابك', 'ويل تسليح املس سابك', 'ويل تسليح املس سابك']</t>
         </is>
       </c>
     </row>
@@ -1661,24 +1661,24 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C48" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>45_coupling_way_bc_earth bar</t>
+          <t>46_راجح_نظامي_جريد_حديد</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['coupling', 'way', 'bc', 'earth bar', 'pvc', 'earth', 'conduit', 'with', 'aplacotm', 'joint']</t>
+          <t>['راجح', 'نظامي', 'جريد', 'حديد', 'سد', 'تسليح', '', '', '', '']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>['pvc coupling', 'bc bsc coupling pvc', 'bc bsc coupling pvc']</t>
+          <t>['حديد تسليح راجح', 'حديد تسليح راجح', 'حديد تسليح راجح']</t>
         </is>
       </c>
     </row>
@@ -1687,24 +1687,24 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>46_saudi_rebar_راجحي_تسليح سعودي</t>
+          <t>47_tech_golde__</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['saudi', 'rebar', 'راجحي', 'تسليح سعودي', 'saudi deformed', 'سعودي', 'حديدتسليح', 'راجحي حديد', 'to riyadh', 'ittefaq rebar']</t>
+          <t>['tech', 'golde', '', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>['rebar saudi majdool', 'rebar saudi alrajhi', 'rebar saudi alrajhi']</t>
+          <t>['golde tech', 'golde tech', 'golde tech']</t>
         </is>
       </c>
     </row>
@@ -1713,24 +1713,24 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>47_مجلفن_براغ_خرسان_صاج حديد</t>
+          <t>48_steel_bar_ittf_reinforcing</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['مجلفن', 'براغ', 'خرسان', 'صاج حديد', 'صاج', 'معدني', 'تصنيع', 'اعمال', 'src', 'مقاوم']</t>
+          <t>['steel', 'bar', 'ittf', 'reinforcing', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>['براغ مجلفن', 'براغ مجلفن', 'براغ مجلفن']</t>
+          <t>['reinforcing steel bar ittf', 'reinforcing steel bar ittf', 'reinforcing steel bar ittf']</t>
         </is>
       </c>
     </row>
@@ -1739,24 +1739,24 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C51" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>48_cut_bend_rebar_slots</t>
+          <t>49_bar_straight_black_watani</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['cut', 'bend', 'rebar', 'slots', 'slot diffuser', 'slot', 'diffuser slots', 'rebar steel', 'diffuser', 'steel']</t>
+          <t>['bar', 'straight', 'black', 'watani', 'deformed', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>['cut bend rebar', 'cut bend rebar', 'cut bend rebar']</t>
+          <t>['black deformed straight bar watani', 'black deformed straight bar watani', 'black deformed straight bar watani']</t>
         </is>
       </c>
     </row>
@@ -1765,24 +1765,24 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C52" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>49_راجحي حديد_راجحي_حديد تسليح_تسليح</t>
+          <t>50_حديد_تسليح_سابك_سعودي</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['راجحي حديد', 'راجحي', 'حديد تسليح', 'تسليح', 'حديد مجدول', 'حديد', 'ياباني', 'ياباني حديد', 'لوحه تحكم', 'لوحه']</t>
+          <t>['حديد', 'تسليح', 'سابك', 'سعودي', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>['حديد تسليح راجحي', 'حديد تسليح راجحي', 'حديد تسليح راجحي']</t>
+          <t>['حديد تسليح سابك سعودي', 'حديد تسليح سعودي سابك', 'حديد تسليح سعودي سابك']</t>
         </is>
       </c>
     </row>
@@ -1791,24 +1791,24 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C53" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>50_ماسوره اسود_ماسوره_هواء_اسفلت</t>
+          <t>51_alrajhi_nansha_ittefaq_majd</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['ماسوره اسود', 'ماسوره', 'هواء', 'اسفلت', 'اعمال', 'منار', 'mt', 'اسود', 'جهد', 'mys']</t>
+          <t>['alrajhi', 'nansha', 'ittefaq', 'majd', 'riyadh', 'rebar', 'china', 'freight', 'arabia', 'saudi']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['ماسوره اسود', 'ماسوره اسود', 'ماسوره اسود']</t>
+          <t>['rebar saudi alrajhi', 'rebar saudi alrajhi', 'rebar saudi alrajhi']</t>
         </is>
       </c>
     </row>
@@ -1817,24 +1817,24 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C54" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>51_single_on_cover_top</t>
+          <t>52_hd_ch_super_plus</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['single', 'on', 'cover', 'top', 'with', 'unequal', 'cable', 'unequal tee', 'tee', 'thk']</t>
+          <t>['hd', 'ch', 'super', 'plus', 'fleetmaster', 'ci', '', '', '', '']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['cable trunking unequal tee plece single compartment with cover on top', 'cable trunking unequal tee plece single compartment with cover on top', 'cable trunking unequal tee plece single compartment with cover on top']</t>
+          <t>['petromin super hd ch', 'petromin super hd ch', 'petromin super hd ch']</t>
         </is>
       </c>
     </row>
@@ -1843,24 +1843,24 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>52_copper_pipes_soft_test</t>
+          <t>53_screw_msm_starter_ms</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['copper', 'pipes', 'soft', 'test', 'ends', 'earth rod', 'clamp for', 'copper tape', 'coils', 'threaded']</t>
+          <t>['screw', 'msm', 'starter', 'ms', 'class', 'manual', 'driver', 'trip', 'motor', 'staters']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>['copper bus bar', 'bare copper', 'bare copper']</t>
+          <t>['ms manual motor starter trip class', 'ms manual motor starter trip class', 'ms manual motor starter trip class']</t>
         </is>
       </c>
     </row>
@@ -1869,24 +1869,24 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>53_بليود_معنون_توريد_كاشف</t>
+          <t>54_bundle_bar_cr_bun</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['بليود', 'معنون', 'توريد', 'كاشف', 'باب', 'ms', 'عادي', 'دخان', 'لوحه تحكم', 'اسود ms']</t>
+          <t>['bundle', 'bar', 'cr', 'bun', 'straight', 'deformed', '', '', '', '']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>['توريد بليود صيني', 'توريد بليود صيني', 'توريد بليود صيني']</t>
+          <t>['deformed straight bar cr bundle', 'deformed straight bar cr bundle', 'deformed straight bar cr bundle']</t>
         </is>
       </c>
     </row>
@@ -1895,310 +1895,24 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C57" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>54_cu_cu xlpe_kv_xlpe</t>
+          <t>55_hydraulic_aw_oil_</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['cu', 'cu xlpe', 'kv', 'xlpe', 'pvc', 'xlpe pvc', 'cable', 'riyadh cable', 'riyadh', 'wire']</t>
+          <t>['hydraulic', 'aw', 'oil', '', '', '', '', '', '', '']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>['riyadh cable cu xlpe pvc kv black', 'riyadh cable cu xlpe pvc kv black', 'riyadh cable cu xlpe pvc kv black']</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>55</v>
-      </c>
-      <c r="C58" t="n">
-        <v>22</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>55_sheet hr_hr_sheet_sabic hr</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>['sheet hr', 'hr', 'sheet', 'sabic hr', 'card', 'reader', 'zk', 'sabic', 'reader zk', 'sabic sheet']</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>['hr sheet', 'hr sheet', 'hr sheet']</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>56</v>
-      </c>
-      <c r="C59" t="n">
-        <v>21</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>56_opc_حديد مجدول_size_مجدول</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>['opc', 'حديد مجدول', 'size', 'مجدول', 'is', 'src', 'md', 'astm', 'structural', 'sizes']</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>['opc cyl screed max agg size', 'opc cyl screed max agg size', 'opc cyl screed max agg size']</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>57</v>
-      </c>
-      <c r="C60" t="n">
-        <v>21</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>57_املس_ويل_ويل املس_اسود سابك</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>['املس', 'ويل', 'ويل املس', 'اسود سابك', 'سابك', 'بانل', 'سابك صاج', 'صاج اسود', 'خزان', 'بلدوره']</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>['ويل تسليح املس سابك', 'ويل تسليح املس سابك', 'ويل تسليح املس سابك']</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>58</v>
-      </c>
-      <c r="C61" t="n">
-        <v>21</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>58_رمادي_نيبرو_تيب_class</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>['رمادي', 'نيبرو', 'تيب', 'class', 'ربر', 'جلب', 'كوع', 'كوع فاتح', 'فاتح', 'grey']</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>['ماسوره رمادي class نيبرو ربر', 'ماسوره رمادي class نيبرو', 'ماسوره رمادي']</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>59</v>
-      </c>
-      <c r="C62" t="n">
-        <v>20</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>59_welded_sch_end_plain</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>['welded', 'sch', 'end', 'plain', 'pipe', 'th', 'brass', 'led', 'bc', 'box']</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>['gpe welded pipe plain end sch', 'gpe welded pipe plain end sch', 'gpe welded pipe plain end sch']</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>60</v>
-      </c>
-      <c r="C63" t="n">
-        <v>20</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>60_منار_احمر_جلب_black</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>['منار', 'احمر', 'جلب', 'black', 'red', 'sabic sheet', 'كوع', 'كوع فاتح', 'فاتح', 'sheet']</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>['جلب منار احمر', 'جلب منار احمر', 'جلب منار احمر']</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>61</v>
-      </c>
-      <c r="C64" t="n">
-        <v>20</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>61_مجدول سعودي_تسليح مجدول_سعودي سابك_مجدول</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>['مجدول سعودي', 'تسليح مجدول', 'سعودي سابك', 'مجدول', 'سعودي', 'سابك حديد', 'سابك', 'حديد تسليح', 'تسليح', 'حديد']</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>['حديد تسليح مجدول سعودي سابك', 'حديد تسليح مجدول سعودي سابك', 'حديد تسليح مجدول سعودي سابك']</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>62</v>
-      </c>
-      <c r="C65" t="n">
-        <v>19</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>62_pn_pipe_normal_ppr</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>['pn', 'pipe', 'normal', 'ppr', 'mt', 'hose', 'dn grp', 'grp', 'tahweeltm', 'pipes']</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>['ppr pipe pn sdr', 'ppr pipe pn sdr', 'ppr pipe pn sdr']</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>63</v>
-      </c>
-      <c r="C66" t="n">
-        <v>19</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>63_صاج حديد_صاج_حديد_</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>['صاج حديد', 'صاج', 'حديد', '', '', '', '', '', '', '']</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>['صاج حديد', 'صاج حديد', 'صاج حديد']</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>64</v>
-      </c>
-      <c r="C67" t="n">
-        <v>17</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>64_bar watani_watani_black deformed_black</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>['bar watani', 'watani', 'black deformed', 'black', 'straight', 'straight bar', 'deformed straight', 'deformed', 'bar', 'hand matt']</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>['black deformed straight bar watani', 'black deformed straight bar watani', 'black deformed straight bar watani']</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>65</v>
-      </c>
-      <c r="C68" t="n">
-        <v>17</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>65_سابك_فوم_مصمت_ترانس</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>['سابك', 'فوم', 'مصمت', 'ترانس', 'ات', '', '', '', '', '']</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>['سابك', 'سابك', 'سابك']</t>
+          <t>['petromin hydraulic oil aw', 'petromin hydraulic oil aw', 'petromin hydraulic oil aw']</t>
         </is>
       </c>
     </row>
